--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s1_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s1_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>637.7855072773668</v>
+        <v>440.2355072773721</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.137767994895611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.137767994895611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>228.1999999999948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>357.35</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>11.89780720780175</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,20 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6100000000003</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>113.5950000000003</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>115.2400000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>111.4400000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>113.6550000000002</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>160.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>152.13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>156.61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>157.255</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>170.0699999999995</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>168.8199999999995</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>152.6649999999995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>165.8649999999995</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>171.1449999999995</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000000037</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000000037</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000000036</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000000037</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000000037</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>160.05</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>156.61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.255</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>159.49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>170.0699999999995</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>168.8199999999995</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>152.6649999999995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>165.8649999999995</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>171.1449999999995</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>75.89000000000051</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>75.69000000000051</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>80.2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>80.25500000000051</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>75.56500000000051</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.129999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.609999999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.254999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.489999999999952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>20.06999999999948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>18.81999999999948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.664999999999486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8649999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1449999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1786,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>14.055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1797,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>21.615</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>15.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1819,7 +1794,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.824999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1830,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1841,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1852,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1863,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1874,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1885,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1995,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
@@ -2006,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
@@ -2017,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2039,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2078,116 +2053,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
